--- a/data_year/zb/工业/按行业分私营工业企业主要经济指标(2000-2002)/销售费用.xlsx
+++ b/data_year/zb/工业/按行业分私营工业企业主要经济指标(2000-2002)/销售费用.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,379 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>7.25741</v>
-      </c>
-      <c r="C2" t="n">
-        <v>7.32075</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.57037</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.00061</v>
-      </c>
-      <c r="F2" t="n">
-        <v>3.19282</v>
-      </c>
-      <c r="G2" t="n">
-        <v>11.38856</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.40839</v>
-      </c>
-      <c r="I2" t="n">
-        <v>9.856619999999999</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1.08879</v>
-      </c>
-      <c r="K2" t="n">
-        <v>5.43821</v>
-      </c>
-      <c r="L2" t="n">
-        <v>3.60359</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.90561</v>
-      </c>
-      <c r="N2" t="n">
-        <v>9.332459999999999</v>
-      </c>
-      <c r="O2" t="n">
-        <v>3.07997</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.7188099999999999</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>9.89949</v>
-      </c>
-      <c r="R2" t="n">
-        <v>2.89863</v>
-      </c>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="n">
-        <v>1.5895</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0.01702</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.02056</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1.42983</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0.34831</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>7.0969</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>17.64418</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>2.93454</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>2.92767</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0.02067</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>178.42333</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>6.86412</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0.03499</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>3.30372</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>10.50298</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>13.60411</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>1.91059</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>7.29635</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>12.14251</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>6.29983</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>2.90201</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>0.57185</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>10.49136</v>
-      </c>
-      <c r="C3" t="n">
-        <v>10.9996</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.51895</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.03035</v>
-      </c>
-      <c r="F3" t="n">
-        <v>5.26406</v>
-      </c>
-      <c r="G3" t="n">
-        <v>21.95202</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.76163</v>
-      </c>
-      <c r="I3" t="n">
-        <v>14.40248</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1.92811</v>
-      </c>
-      <c r="K3" t="n">
-        <v>8.43275</v>
-      </c>
-      <c r="L3" t="n">
-        <v>4.71918</v>
-      </c>
-      <c r="M3" t="n">
-        <v>4.25134</v>
-      </c>
-      <c r="N3" t="n">
-        <v>16.73551</v>
-      </c>
-      <c r="O3" t="n">
-        <v>5.33003</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1.58832</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>13.14626</v>
-      </c>
-      <c r="R3" t="n">
-        <v>6.02624</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0.02179</v>
-      </c>
-      <c r="T3" t="n">
-        <v>3.11101</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0.008460000000000001</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0.08601</v>
-      </c>
-      <c r="W3" t="n">
-        <v>2.45552</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0.1495</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>10.1955</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>22.91026</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>5.17708</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>4.2246</v>
-      </c>
-      <c r="AC3" t="inlineStr"/>
-      <c r="AD3" t="n">
-        <v>277.92056</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>14.07335</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>0.03893</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>4.99706</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>16.30899</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>19.66138</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>2.8976</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>10.77424</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>18.50173</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>6.77928</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>5.91645</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>1.05363</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>14.58068</v>
-      </c>
-      <c r="C4" t="n">
-        <v>16.80816</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.78755</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.02442</v>
-      </c>
-      <c r="F4" t="n">
-        <v>7.37996</v>
-      </c>
-      <c r="G4" t="n">
-        <v>33.85149</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1.11813</v>
-      </c>
-      <c r="I4" t="n">
-        <v>19.17424</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2.66216</v>
-      </c>
-      <c r="K4" t="n">
-        <v>13.37449</v>
-      </c>
-      <c r="L4" t="n">
-        <v>5.69595</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5.72226</v>
-      </c>
-      <c r="N4" t="n">
-        <v>25.18614</v>
-      </c>
-      <c r="O4" t="n">
-        <v>6.00678</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1.86858</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>19.02567</v>
-      </c>
-      <c r="R4" t="n">
-        <v>8.49427</v>
-      </c>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="n">
-        <v>3.78701</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0.008189999999999999</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0.26773</v>
-      </c>
-      <c r="W4" t="n">
-        <v>4.19663</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0.36441</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>11.94198</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>30.50964</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>8.778409999999999</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>8.50564</v>
-      </c>
-      <c r="AC4" t="inlineStr"/>
-      <c r="AD4" t="n">
-        <v>403.85188</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>20.65001</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>0.04782</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>7.43732</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>25.2895</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>29.65619</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>5.15505</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>14.80066</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>25.23125</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>9.78097</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>9.95509</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>2.72745</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
